--- a/Homework_3/Test Execution Report_Calc_Olga_Rymarchuk.xlsx
+++ b/Homework_3/Test Execution Report_Calc_Olga_Rymarchuk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="20730" windowHeight="11760" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20730" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="FRD" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="235">
   <si>
     <t>Project name:</t>
   </si>
@@ -691,6 +691,39 @@
   </si>
   <si>
     <t>If Number 1 was not negative, repeat test with the corresponding negative number</t>
+  </si>
+  <si>
+    <t>2.5 Long chain of calculations</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>2.5.1</t>
+  </si>
+  <si>
+    <t>Check in function combination square root function,  percentage multiplication function,  common logarithm function, common logarithm function together</t>
+  </si>
+  <si>
+    <t>2.5.1.</t>
+  </si>
+  <si>
+    <t>The calculator must calculate the numerical combination (string) of addition, multiplication, division, calculation together</t>
+  </si>
+  <si>
+    <t>Choose next arithmetic operation (all 1 2 3 4 coding in the Test Data)</t>
+  </si>
+  <si>
+    <t>Repeat random number choosing, inputing and pressing '+ -/ *' button as many times as necessitated by step 1</t>
+  </si>
+  <si>
+    <t>Same as above (no changes), Correspondingly to steps 2, 3 and 4</t>
+  </si>
+  <si>
+    <t>2.5.1.1.</t>
+  </si>
+  <si>
+    <t>When calculating each individual function there are bugs, then when calculating an arithmetic number chain, the answer will be incorrect</t>
   </si>
 </sst>
 </file>
@@ -698,10 +731,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="188" formatCode="#,##0.0000000000"/>
-    <numFmt numFmtId="189" formatCode="#,##0.0000000"/>
-    <numFmt numFmtId="190" formatCode="#,##0.000"/>
-    <numFmt numFmtId="191" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0000000000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -752,7 +785,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -916,11 +949,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -957,7 +1003,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -970,20 +1016,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="191" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -993,19 +1039,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1014,16 +1069,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1032,22 +1099,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1066,13 +1117,45 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1404,7 +1487,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1412,10 +1495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,22 +1507,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="61"/>
       <c r="C2" s="3" t="s">
         <v>28</v>
       </c>
@@ -1460,26 +1543,26 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -1492,11 +1575,11 @@
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1504,48 +1587,48 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1562,11 +1645,11 @@
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1574,69 +1657,69 @@
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1644,69 +1727,69 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
+      <c r="A20" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
+      <c r="A22" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="44" t="s">
-        <v>211</v>
-      </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -1714,11 +1797,11 @@
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="45" t="s">
-        <v>212</v>
-      </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="3"/>
+      <c r="A26" s="59" t="s">
+        <v>211</v>
+      </c>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -1726,108 +1809,110 @@
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="A27" s="65" t="s">
+        <v>212</v>
+      </c>
+      <c r="B27" s="65"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
+      <c r="A29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
+      <c r="A30" s="63"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
+      <c r="A31" s="64"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="46"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
+      <c r="A32" s="64"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="63"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="62"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="47"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
+      <c r="A35" s="62"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="A36" s="62"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -1836,68 +1921,68 @@
       <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="46"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
+      <c r="A38" s="59"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="48"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="63"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="64"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="64"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="46"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="48"/>
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="48"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
+      <c r="A41" s="64"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="64"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="63"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="64"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="64"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="44"/>
-      <c r="B44" s="44"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -1906,118 +1991,158 @@
       <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="46"/>
-      <c r="B45" s="46"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
+      <c r="A45" s="59"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="47"/>
-      <c r="B46" s="47"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="46"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="63"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="62"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="62"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="47"/>
-      <c r="B48" s="47"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
+      <c r="A48" s="63"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="46"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="47"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="47"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="47"/>
-      <c r="B51" s="47"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="47"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
-      <c r="B53" s="44"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
+      <c r="A49" s="62"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="62"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="63"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="62"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="62"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="62"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="62"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="46"/>
-      <c r="B54" s="46"/>
-      <c r="C54" s="46"/>
-      <c r="D54" s="46"/>
+      <c r="A54" s="59"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="47"/>
-      <c r="B55" s="47"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="47"/>
-      <c r="H55" s="47"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="47"/>
-      <c r="B56" s="47"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="47"/>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="63"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="62"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="62"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="62"/>
+      <c r="B57" s="62"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="62"/>
+      <c r="F57" s="62"/>
+      <c r="G57" s="62"/>
+      <c r="H57" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="A28:B28"/>
+  <mergeCells count="41">
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A56:H57"/>
+    <mergeCell ref="A51:H52"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:H32"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A40:H41"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A34:H36"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A4:H5"/>
@@ -2027,36 +2152,7 @@
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A39:H40"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A33:H35"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:H31"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:H56"/>
-    <mergeCell ref="A50:H51"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="A46:H46"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A24:D24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2065,10 +2161,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G24" sqref="G23:G24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2241,82 +2337,93 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2327,103 +2434,103 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D335"/>
+  <dimension ref="A1:D351"/>
   <sheetViews>
-    <sheetView topLeftCell="A331" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="E233" sqref="E233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="75.5703125" customWidth="1"/>
-    <col min="3" max="3" width="54.7109375" customWidth="1"/>
+    <col min="3" max="3" width="56.85546875" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="75"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="74"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="78"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="77"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="53" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="54"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="67"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
-      <c r="B5" s="53" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="54"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="67"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="52"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="69"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="69"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="54"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="45" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2536,88 +2643,88 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="C20" s="74"/>
-      <c r="D20" s="75"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="74"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
-      <c r="B21" s="76"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="78"/>
+      <c r="A21" s="71"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="77"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="54"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="67"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="53" t="s">
+      <c r="A23" s="44"/>
+      <c r="B23" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="53"/>
-      <c r="D23" s="54"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="67"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
-      <c r="B24" s="53" t="s">
+      <c r="A24" s="44"/>
+      <c r="B24" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="53"/>
-      <c r="D24" s="54"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="67"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="52"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="69"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="52"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="69"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="C27" s="53"/>
-      <c r="D27" s="54"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="67"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="58" t="s">
+      <c r="A28" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="58" t="s">
+      <c r="C28" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="58" t="s">
+      <c r="D28" s="45" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2706,88 +2813,88 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="55" t="s">
+      <c r="A37" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="73" t="s">
+      <c r="B37" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="C37" s="74"/>
-      <c r="D37" s="75"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="74"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="56"/>
-      <c r="B38" s="76"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="78"/>
+      <c r="A38" s="71"/>
+      <c r="B38" s="75"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="77"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="57" t="s">
+      <c r="A39" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="53" t="s">
+      <c r="B39" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="53"/>
-      <c r="D39" s="54"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="67"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="57"/>
-      <c r="B40" s="53" t="s">
+      <c r="A40" s="44"/>
+      <c r="B40" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="53"/>
-      <c r="D40" s="54"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="67"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="57"/>
-      <c r="B41" s="53" t="s">
+      <c r="A41" s="44"/>
+      <c r="B41" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="53"/>
-      <c r="D41" s="54"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="67"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="58" t="s">
+      <c r="A42" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="51"/>
-      <c r="D42" s="52"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="69"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="58" t="s">
+      <c r="A43" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="51"/>
-      <c r="D43" s="52"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="69"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="57" t="s">
+      <c r="A44" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="53" t="s">
+      <c r="B44" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="C44" s="53"/>
-      <c r="D44" s="54"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="67"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="58" t="s">
+      <c r="A45" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="58" t="s">
+      <c r="B45" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="58" t="s">
+      <c r="C45" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="58" t="s">
+      <c r="D45" s="45" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2876,88 +2983,88 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="55" t="s">
+      <c r="A54" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="B54" s="73" t="s">
+      <c r="B54" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="74"/>
-      <c r="D54" s="75"/>
+      <c r="C54" s="73"/>
+      <c r="D54" s="74"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="56"/>
-      <c r="B55" s="76"/>
-      <c r="C55" s="77"/>
-      <c r="D55" s="78"/>
+      <c r="A55" s="71"/>
+      <c r="B55" s="75"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="77"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="57" t="s">
+      <c r="A56" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B56" s="53" t="s">
+      <c r="B56" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="53"/>
-      <c r="D56" s="54"/>
+      <c r="C56" s="66"/>
+      <c r="D56" s="67"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="57"/>
-      <c r="B57" s="53" t="s">
+      <c r="A57" s="44"/>
+      <c r="B57" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="C57" s="53"/>
-      <c r="D57" s="54"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="67"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="57"/>
-      <c r="B58" s="53" t="s">
+      <c r="A58" s="44"/>
+      <c r="B58" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="53"/>
-      <c r="D58" s="54"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="67"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="58" t="s">
+      <c r="A59" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="51" t="s">
+      <c r="B59" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="C59" s="51"/>
-      <c r="D59" s="52"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="69"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="58" t="s">
+      <c r="A60" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B60" s="51" t="s">
+      <c r="B60" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="C60" s="51"/>
-      <c r="D60" s="52"/>
+      <c r="C60" s="68"/>
+      <c r="D60" s="69"/>
     </row>
     <row r="61" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="57" t="s">
+      <c r="A61" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B61" s="53" t="s">
+      <c r="B61" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="C61" s="53"/>
-      <c r="D61" s="54"/>
+      <c r="C61" s="66"/>
+      <c r="D61" s="67"/>
     </row>
     <row r="62" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="58" t="s">
+      <c r="A62" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B62" s="58" t="s">
+      <c r="B62" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="C62" s="58" t="s">
+      <c r="C62" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="D62" s="58" t="s">
+      <c r="D62" s="45" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3070,88 +3177,88 @@
       <c r="D71"/>
     </row>
     <row r="72" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="55" t="s">
+      <c r="A72" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="B72" s="73" t="s">
+      <c r="B72" s="72" t="s">
         <v>165</v>
       </c>
-      <c r="C72" s="74"/>
-      <c r="D72" s="75"/>
+      <c r="C72" s="73"/>
+      <c r="D72" s="74"/>
     </row>
     <row r="73" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="56"/>
-      <c r="B73" s="76"/>
-      <c r="C73" s="77"/>
-      <c r="D73" s="78"/>
+      <c r="A73" s="71"/>
+      <c r="B73" s="75"/>
+      <c r="C73" s="76"/>
+      <c r="D73" s="77"/>
     </row>
     <row r="74" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="57" t="s">
+      <c r="A74" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B74" s="53" t="s">
+      <c r="B74" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="C74" s="53"/>
-      <c r="D74" s="54"/>
+      <c r="C74" s="66"/>
+      <c r="D74" s="67"/>
     </row>
     <row r="75" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="57"/>
-      <c r="B75" s="53" t="s">
+      <c r="A75" s="44"/>
+      <c r="B75" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="53"/>
-      <c r="D75" s="54"/>
+      <c r="C75" s="66"/>
+      <c r="D75" s="67"/>
     </row>
     <row r="76" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="57"/>
-      <c r="B76" s="53" t="s">
+      <c r="A76" s="44"/>
+      <c r="B76" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="C76" s="53"/>
-      <c r="D76" s="54"/>
+      <c r="C76" s="66"/>
+      <c r="D76" s="67"/>
     </row>
     <row r="77" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="58" t="s">
+      <c r="A77" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B77" s="51" t="s">
+      <c r="B77" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="C77" s="51"/>
-      <c r="D77" s="52"/>
+      <c r="C77" s="68"/>
+      <c r="D77" s="69"/>
     </row>
     <row r="78" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="58" t="s">
+      <c r="A78" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B78" s="51" t="s">
+      <c r="B78" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="C78" s="51"/>
-      <c r="D78" s="52"/>
+      <c r="C78" s="68"/>
+      <c r="D78" s="69"/>
     </row>
     <row r="79" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="57" t="s">
+      <c r="A79" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B79" s="53" t="s">
+      <c r="B79" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="C79" s="53"/>
-      <c r="D79" s="54"/>
+      <c r="C79" s="66"/>
+      <c r="D79" s="67"/>
     </row>
     <row r="80" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="58" t="s">
+      <c r="A80" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B80" s="58" t="s">
+      <c r="B80" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="C80" s="58" t="s">
+      <c r="C80" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="D80" s="58" t="s">
+      <c r="D80" s="45" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3242,88 +3349,88 @@
     <row r="87" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="88" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="89" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="55" t="s">
+      <c r="A89" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B89" s="73" t="s">
+      <c r="B89" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="C89" s="74"/>
-      <c r="D89" s="75"/>
+      <c r="C89" s="73"/>
+      <c r="D89" s="74"/>
     </row>
     <row r="90" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="56"/>
-      <c r="B90" s="76"/>
-      <c r="C90" s="77"/>
-      <c r="D90" s="78"/>
+      <c r="A90" s="71"/>
+      <c r="B90" s="75"/>
+      <c r="C90" s="76"/>
+      <c r="D90" s="77"/>
     </row>
     <row r="91" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="57" t="s">
+      <c r="A91" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B91" s="53" t="s">
+      <c r="B91" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="C91" s="53"/>
-      <c r="D91" s="54"/>
+      <c r="C91" s="66"/>
+      <c r="D91" s="67"/>
     </row>
     <row r="92" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="57"/>
-      <c r="B92" s="53" t="s">
+      <c r="A92" s="44"/>
+      <c r="B92" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="C92" s="53"/>
-      <c r="D92" s="54"/>
+      <c r="C92" s="66"/>
+      <c r="D92" s="67"/>
     </row>
     <row r="93" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="57"/>
-      <c r="B93" s="53" t="s">
+      <c r="A93" s="44"/>
+      <c r="B93" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="C93" s="53"/>
-      <c r="D93" s="54"/>
+      <c r="C93" s="66"/>
+      <c r="D93" s="67"/>
     </row>
     <row r="94" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="58" t="s">
+      <c r="A94" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B94" s="51" t="s">
+      <c r="B94" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="C94" s="51"/>
-      <c r="D94" s="52"/>
+      <c r="C94" s="68"/>
+      <c r="D94" s="69"/>
     </row>
     <row r="95" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="58" t="s">
+      <c r="A95" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B95" s="51" t="s">
+      <c r="B95" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="C95" s="51"/>
-      <c r="D95" s="52"/>
+      <c r="C95" s="68"/>
+      <c r="D95" s="69"/>
     </row>
     <row r="96" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="57" t="s">
+      <c r="A96" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B96" s="53" t="s">
+      <c r="B96" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="C96" s="53"/>
-      <c r="D96" s="54"/>
+      <c r="C96" s="66"/>
+      <c r="D96" s="67"/>
     </row>
     <row r="97" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="58" t="s">
+      <c r="A97" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B97" s="58" t="s">
+      <c r="B97" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="C97" s="58" t="s">
+      <c r="C97" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="D97" s="58" t="s">
+      <c r="D97" s="45" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3448,88 +3555,88 @@
       <c r="D107"/>
     </row>
     <row r="108" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="55" t="s">
+      <c r="A108" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="B108" s="73" t="s">
+      <c r="B108" s="72" t="s">
         <v>166</v>
       </c>
-      <c r="C108" s="74"/>
-      <c r="D108" s="75"/>
+      <c r="C108" s="73"/>
+      <c r="D108" s="74"/>
     </row>
     <row r="109" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="56"/>
-      <c r="B109" s="76"/>
-      <c r="C109" s="77"/>
-      <c r="D109" s="78"/>
+      <c r="A109" s="71"/>
+      <c r="B109" s="75"/>
+      <c r="C109" s="76"/>
+      <c r="D109" s="77"/>
     </row>
     <row r="110" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="57" t="s">
+      <c r="A110" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B110" s="53" t="s">
+      <c r="B110" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="C110" s="53"/>
-      <c r="D110" s="54"/>
+      <c r="C110" s="66"/>
+      <c r="D110" s="67"/>
     </row>
     <row r="111" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="57"/>
-      <c r="B111" s="53" t="s">
+      <c r="A111" s="44"/>
+      <c r="B111" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="C111" s="53"/>
-      <c r="D111" s="54"/>
+      <c r="C111" s="66"/>
+      <c r="D111" s="67"/>
     </row>
     <row r="112" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="57"/>
-      <c r="B112" s="53" t="s">
+      <c r="A112" s="44"/>
+      <c r="B112" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="C112" s="53"/>
-      <c r="D112" s="54"/>
+      <c r="C112" s="66"/>
+      <c r="D112" s="67"/>
     </row>
     <row r="113" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="58" t="s">
+      <c r="A113" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B113" s="51" t="s">
+      <c r="B113" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="C113" s="51"/>
-      <c r="D113" s="52"/>
+      <c r="C113" s="68"/>
+      <c r="D113" s="69"/>
     </row>
     <row r="114" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="58" t="s">
+      <c r="A114" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B114" s="51" t="s">
+      <c r="B114" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="C114" s="51"/>
-      <c r="D114" s="52"/>
+      <c r="C114" s="68"/>
+      <c r="D114" s="69"/>
     </row>
     <row r="115" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="57" t="s">
+      <c r="A115" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B115" s="53" t="s">
+      <c r="B115" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="C115" s="53"/>
-      <c r="D115" s="54"/>
+      <c r="C115" s="66"/>
+      <c r="D115" s="67"/>
     </row>
     <row r="116" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="58" t="s">
+      <c r="A116" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B116" s="58" t="s">
+      <c r="B116" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="C116" s="58" t="s">
+      <c r="C116" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="D116" s="58" t="s">
+      <c r="D116" s="45" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3620,88 +3727,88 @@
     <row r="123" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="124" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="125" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="55" t="s">
+      <c r="A125" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="B125" s="73" t="s">
+      <c r="B125" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="C125" s="74"/>
-      <c r="D125" s="75"/>
+      <c r="C125" s="73"/>
+      <c r="D125" s="74"/>
     </row>
     <row r="126" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="56"/>
-      <c r="B126" s="76"/>
-      <c r="C126" s="77"/>
-      <c r="D126" s="78"/>
+      <c r="A126" s="71"/>
+      <c r="B126" s="75"/>
+      <c r="C126" s="76"/>
+      <c r="D126" s="77"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="57" t="s">
+      <c r="A127" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B127" s="53" t="s">
+      <c r="B127" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="C127" s="53"/>
-      <c r="D127" s="54"/>
+      <c r="C127" s="66"/>
+      <c r="D127" s="67"/>
     </row>
     <row r="128" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="57"/>
-      <c r="B128" s="53" t="s">
+      <c r="A128" s="44"/>
+      <c r="B128" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="C128" s="53"/>
-      <c r="D128" s="54"/>
+      <c r="C128" s="66"/>
+      <c r="D128" s="67"/>
     </row>
     <row r="129" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="57"/>
-      <c r="B129" s="53" t="s">
+      <c r="A129" s="44"/>
+      <c r="B129" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="C129" s="53"/>
-      <c r="D129" s="54"/>
+      <c r="C129" s="66"/>
+      <c r="D129" s="67"/>
     </row>
     <row r="130" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="58" t="s">
+      <c r="A130" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B130" s="51" t="s">
+      <c r="B130" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="C130" s="51"/>
-      <c r="D130" s="52"/>
+      <c r="C130" s="68"/>
+      <c r="D130" s="69"/>
     </row>
     <row r="131" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="58" t="s">
+      <c r="A131" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B131" s="51" t="s">
+      <c r="B131" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="C131" s="51"/>
-      <c r="D131" s="52"/>
+      <c r="C131" s="68"/>
+      <c r="D131" s="69"/>
     </row>
     <row r="132" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="57" t="s">
+      <c r="A132" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B132" s="53" t="s">
+      <c r="B132" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="C132" s="53"/>
-      <c r="D132" s="54"/>
+      <c r="C132" s="66"/>
+      <c r="D132" s="67"/>
     </row>
     <row r="133" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="58" t="s">
+      <c r="A133" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B133" s="58" t="s">
+      <c r="B133" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="C133" s="58" t="s">
+      <c r="C133" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="D133" s="58" t="s">
+      <c r="D133" s="45" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3814,88 +3921,88 @@
       <c r="D142"/>
     </row>
     <row r="143" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="55" t="s">
+      <c r="A143" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="B143" s="73" t="s">
+      <c r="B143" s="72" t="s">
         <v>167</v>
       </c>
-      <c r="C143" s="74"/>
-      <c r="D143" s="75"/>
+      <c r="C143" s="73"/>
+      <c r="D143" s="74"/>
     </row>
     <row r="144" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="56"/>
-      <c r="B144" s="76"/>
-      <c r="C144" s="77"/>
-      <c r="D144" s="78"/>
+      <c r="A144" s="71"/>
+      <c r="B144" s="75"/>
+      <c r="C144" s="76"/>
+      <c r="D144" s="77"/>
     </row>
     <row r="145" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="57" t="s">
+      <c r="A145" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B145" s="53" t="s">
+      <c r="B145" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="C145" s="53"/>
-      <c r="D145" s="54"/>
+      <c r="C145" s="66"/>
+      <c r="D145" s="67"/>
     </row>
     <row r="146" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="57"/>
-      <c r="B146" s="53" t="s">
+      <c r="A146" s="44"/>
+      <c r="B146" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="C146" s="53"/>
-      <c r="D146" s="54"/>
+      <c r="C146" s="66"/>
+      <c r="D146" s="67"/>
     </row>
     <row r="147" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="57"/>
-      <c r="B147" s="53" t="s">
+      <c r="A147" s="44"/>
+      <c r="B147" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="C147" s="53"/>
-      <c r="D147" s="54"/>
+      <c r="C147" s="66"/>
+      <c r="D147" s="67"/>
     </row>
     <row r="148" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="58" t="s">
+      <c r="A148" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B148" s="51" t="s">
+      <c r="B148" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="C148" s="51"/>
-      <c r="D148" s="52"/>
+      <c r="C148" s="68"/>
+      <c r="D148" s="69"/>
     </row>
     <row r="149" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="58" t="s">
+      <c r="A149" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B149" s="51" t="s">
+      <c r="B149" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="C149" s="51"/>
-      <c r="D149" s="52"/>
+      <c r="C149" s="68"/>
+      <c r="D149" s="69"/>
     </row>
     <row r="150" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="57" t="s">
+      <c r="A150" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B150" s="53" t="s">
+      <c r="B150" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="C150" s="53"/>
-      <c r="D150" s="54"/>
+      <c r="C150" s="66"/>
+      <c r="D150" s="67"/>
     </row>
     <row r="151" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="58" t="s">
+      <c r="A151" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B151" s="58" t="s">
+      <c r="B151" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="C151" s="58" t="s">
+      <c r="C151" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="D151" s="58" t="s">
+      <c r="D151" s="45" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3985,88 +4092,88 @@
     </row>
     <row r="158" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="55" t="s">
+      <c r="A160" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="B160" s="73" t="s">
+      <c r="B160" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="C160" s="74"/>
-      <c r="D160" s="75"/>
+      <c r="C160" s="73"/>
+      <c r="D160" s="74"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="56"/>
-      <c r="B161" s="76"/>
-      <c r="C161" s="77"/>
-      <c r="D161" s="78"/>
+      <c r="A161" s="71"/>
+      <c r="B161" s="75"/>
+      <c r="C161" s="76"/>
+      <c r="D161" s="77"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="57" t="s">
+      <c r="A162" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B162" s="53" t="s">
+      <c r="B162" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="C162" s="53"/>
-      <c r="D162" s="54"/>
+      <c r="C162" s="66"/>
+      <c r="D162" s="67"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="57"/>
-      <c r="B163" s="53" t="s">
+      <c r="A163" s="44"/>
+      <c r="B163" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="C163" s="53"/>
-      <c r="D163" s="54"/>
+      <c r="C163" s="66"/>
+      <c r="D163" s="67"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="57"/>
-      <c r="B164" s="53" t="s">
+      <c r="A164" s="44"/>
+      <c r="B164" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="C164" s="53"/>
-      <c r="D164" s="54"/>
+      <c r="C164" s="66"/>
+      <c r="D164" s="67"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="58" t="s">
+      <c r="A165" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B165" s="51" t="s">
+      <c r="B165" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="C165" s="51"/>
-      <c r="D165" s="52"/>
+      <c r="C165" s="68"/>
+      <c r="D165" s="69"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="58" t="s">
+      <c r="A166" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B166" s="51" t="s">
+      <c r="B166" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="C166" s="51"/>
-      <c r="D166" s="52"/>
+      <c r="C166" s="68"/>
+      <c r="D166" s="69"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="57" t="s">
+      <c r="A167" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B167" s="53" t="s">
+      <c r="B167" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="C167" s="53"/>
-      <c r="D167" s="54"/>
+      <c r="C167" s="66"/>
+      <c r="D167" s="67"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="58" t="s">
+      <c r="A168" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B168" s="58" t="s">
+      <c r="B168" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="C168" s="58" t="s">
+      <c r="C168" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="D168" s="58" t="s">
+      <c r="D168" s="45" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4139,88 +4246,88 @@
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="55" t="s">
+      <c r="A176" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="B176" s="73" t="s">
+      <c r="B176" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="C176" s="74"/>
-      <c r="D176" s="75"/>
+      <c r="C176" s="73"/>
+      <c r="D176" s="74"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="56"/>
-      <c r="B177" s="76"/>
-      <c r="C177" s="77"/>
-      <c r="D177" s="78"/>
+      <c r="A177" s="71"/>
+      <c r="B177" s="75"/>
+      <c r="C177" s="76"/>
+      <c r="D177" s="77"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="57" t="s">
+      <c r="A178" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B178" s="53" t="s">
+      <c r="B178" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="C178" s="53"/>
-      <c r="D178" s="54"/>
+      <c r="C178" s="66"/>
+      <c r="D178" s="67"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="57"/>
-      <c r="B179" s="53" t="s">
+      <c r="A179" s="44"/>
+      <c r="B179" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="C179" s="53"/>
-      <c r="D179" s="54"/>
+      <c r="C179" s="66"/>
+      <c r="D179" s="67"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="57"/>
-      <c r="B180" s="53" t="s">
+      <c r="A180" s="44"/>
+      <c r="B180" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="C180" s="53"/>
-      <c r="D180" s="54"/>
+      <c r="C180" s="66"/>
+      <c r="D180" s="67"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="58" t="s">
+      <c r="A181" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B181" s="51" t="s">
+      <c r="B181" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="C181" s="51"/>
-      <c r="D181" s="52"/>
+      <c r="C181" s="68"/>
+      <c r="D181" s="69"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="58" t="s">
+      <c r="A182" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B182" s="51" t="s">
+      <c r="B182" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="C182" s="51"/>
-      <c r="D182" s="52"/>
+      <c r="C182" s="68"/>
+      <c r="D182" s="69"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="57" t="s">
+      <c r="A183" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B183" s="53" t="s">
+      <c r="B183" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="C183" s="53"/>
-      <c r="D183" s="54"/>
+      <c r="C183" s="66"/>
+      <c r="D183" s="67"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="58" t="s">
+      <c r="A184" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B184" s="58" t="s">
+      <c r="B184" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="C184" s="58" t="s">
+      <c r="C184" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="D184" s="58" t="s">
+      <c r="D184" s="45" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4294,7 +4401,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="12">
         <v>6</v>
       </c>
@@ -4323,88 +4430,88 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="55" t="s">
+      <c r="A194" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="B194" s="73" t="s">
+      <c r="B194" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="C194" s="74"/>
-      <c r="D194" s="75"/>
+      <c r="C194" s="73"/>
+      <c r="D194" s="74"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="56"/>
-      <c r="B195" s="76"/>
-      <c r="C195" s="77"/>
-      <c r="D195" s="78"/>
+      <c r="A195" s="71"/>
+      <c r="B195" s="75"/>
+      <c r="C195" s="76"/>
+      <c r="D195" s="77"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="57" t="s">
+      <c r="A196" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B196" s="53" t="s">
+      <c r="B196" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="C196" s="53"/>
-      <c r="D196" s="54"/>
+      <c r="C196" s="66"/>
+      <c r="D196" s="67"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="57"/>
-      <c r="B197" s="53" t="s">
+      <c r="A197" s="44"/>
+      <c r="B197" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="C197" s="53"/>
-      <c r="D197" s="54"/>
+      <c r="C197" s="66"/>
+      <c r="D197" s="67"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="57"/>
-      <c r="B198" s="53" t="s">
+      <c r="A198" s="44"/>
+      <c r="B198" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="C198" s="53"/>
-      <c r="D198" s="54"/>
+      <c r="C198" s="66"/>
+      <c r="D198" s="67"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="58" t="s">
+      <c r="A199" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B199" s="51" t="s">
+      <c r="B199" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="C199" s="51"/>
-      <c r="D199" s="52"/>
+      <c r="C199" s="68"/>
+      <c r="D199" s="69"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="58" t="s">
+      <c r="A200" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B200" s="51" t="s">
+      <c r="B200" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="C200" s="51"/>
-      <c r="D200" s="52"/>
+      <c r="C200" s="68"/>
+      <c r="D200" s="69"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="57" t="s">
+      <c r="A201" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B201" s="53" t="s">
+      <c r="B201" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="C201" s="53"/>
-      <c r="D201" s="54"/>
+      <c r="C201" s="66"/>
+      <c r="D201" s="67"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="59" t="s">
+      <c r="A202" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="B202" s="59" t="s">
+      <c r="B202" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C202" s="59" t="s">
+      <c r="C202" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="D202" s="60" t="s">
+      <c r="D202" s="47" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4465,88 +4572,88 @@
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="55" t="s">
+      <c r="A209" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="B209" s="73" t="s">
+      <c r="B209" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="C209" s="74"/>
-      <c r="D209" s="75"/>
+      <c r="C209" s="73"/>
+      <c r="D209" s="74"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="56"/>
-      <c r="B210" s="76"/>
-      <c r="C210" s="77"/>
-      <c r="D210" s="78"/>
+      <c r="A210" s="71"/>
+      <c r="B210" s="75"/>
+      <c r="C210" s="76"/>
+      <c r="D210" s="77"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="57" t="s">
+      <c r="A211" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B211" s="53" t="s">
+      <c r="B211" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="C211" s="53"/>
-      <c r="D211" s="54"/>
+      <c r="C211" s="66"/>
+      <c r="D211" s="67"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" s="57"/>
-      <c r="B212" s="53" t="s">
+      <c r="A212" s="44"/>
+      <c r="B212" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="C212" s="53"/>
-      <c r="D212" s="54"/>
+      <c r="C212" s="66"/>
+      <c r="D212" s="67"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="57"/>
-      <c r="B213" s="53" t="s">
+      <c r="A213" s="44"/>
+      <c r="B213" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="C213" s="53"/>
-      <c r="D213" s="54"/>
+      <c r="C213" s="66"/>
+      <c r="D213" s="67"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="58" t="s">
+      <c r="A214" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B214" s="51" t="s">
+      <c r="B214" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="C214" s="51"/>
-      <c r="D214" s="52"/>
+      <c r="C214" s="68"/>
+      <c r="D214" s="69"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" s="58" t="s">
+      <c r="A215" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B215" s="51" t="s">
+      <c r="B215" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="C215" s="51"/>
-      <c r="D215" s="52"/>
+      <c r="C215" s="68"/>
+      <c r="D215" s="69"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" s="57" t="s">
+      <c r="A216" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B216" s="53" t="s">
+      <c r="B216" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="C216" s="53"/>
-      <c r="D216" s="54"/>
+      <c r="C216" s="66"/>
+      <c r="D216" s="67"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="58" t="s">
+      <c r="A217" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B217" s="58" t="s">
+      <c r="B217" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="C217" s="58" t="s">
+      <c r="C217" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="D217" s="58" t="s">
+      <c r="D217" s="45" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4562,104 +4669,118 @@
         <v>148</v>
       </c>
     </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="25"/>
+      <c r="B219" s="25"/>
+      <c r="C219" s="90"/>
+      <c r="D219" s="25"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="91" t="s">
+        <v>226</v>
+      </c>
+      <c r="B220" s="25"/>
+      <c r="C220" s="90"/>
+      <c r="D220" s="25"/>
+    </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="B221" s="73" t="s">
-        <v>61</v>
-      </c>
-      <c r="C221" s="74"/>
-      <c r="D221" s="75"/>
+      <c r="A221" s="70" t="s">
+        <v>228</v>
+      </c>
+      <c r="B221" s="72" t="s">
+        <v>227</v>
+      </c>
+      <c r="C221" s="73"/>
+      <c r="D221" s="74"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" s="56"/>
-      <c r="B222" s="76"/>
-      <c r="C222" s="77"/>
-      <c r="D222" s="78"/>
+      <c r="A222" s="71"/>
+      <c r="B222" s="75"/>
+      <c r="C222" s="76"/>
+      <c r="D222" s="77"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223" s="57" t="s">
+      <c r="A223" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B223" s="53" t="s">
+      <c r="B223" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="C223" s="53"/>
-      <c r="D223" s="54"/>
+      <c r="C223" s="66"/>
+      <c r="D223" s="67"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" s="57"/>
-      <c r="B224" s="53" t="s">
+      <c r="A224" s="44"/>
+      <c r="B224" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="C224" s="53"/>
-      <c r="D224" s="54"/>
+      <c r="C224" s="66"/>
+      <c r="D224" s="67"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" s="57"/>
-      <c r="B225" s="53" t="s">
+      <c r="A225" s="44"/>
+      <c r="B225" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="C225" s="53"/>
-      <c r="D225" s="54"/>
+      <c r="C225" s="66"/>
+      <c r="D225" s="67"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" s="58" t="s">
+      <c r="A226" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B226" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="C226" s="51"/>
-      <c r="D226" s="52"/>
+      <c r="B226" s="68" t="s">
+        <v>229</v>
+      </c>
+      <c r="C226" s="68"/>
+      <c r="D226" s="69"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227" s="58" t="s">
+      <c r="A227" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B227" s="51" t="s">
+      <c r="B227" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="C227" s="51"/>
-      <c r="D227" s="52"/>
+      <c r="C227" s="68"/>
+      <c r="D227" s="69"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" s="57" t="s">
+      <c r="A228" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B228" s="53" t="s">
+      <c r="B228" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="C228" s="53"/>
-      <c r="D228" s="54"/>
+      <c r="C228" s="66"/>
+      <c r="D228" s="67"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" s="59" t="s">
+      <c r="A229" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B229" s="59" t="s">
+      <c r="B229" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="C229" s="59" t="s">
+      <c r="C229" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="D229" s="59" t="s">
+      <c r="D229" s="45" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" s="12">
+    <row r="230" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A230" s="17">
         <v>1</v>
       </c>
-      <c r="B230" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C230" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D230" s="12" t="s">
-        <v>148</v>
+      <c r="B230" s="92" t="s">
+        <v>183</v>
+      </c>
+      <c r="C230" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D230" s="17" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -4667,268 +4788,273 @@
         <v>2</v>
       </c>
       <c r="B231" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C231" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="D231" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C231" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D231" s="17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A232" s="12">
+        <v>3</v>
+      </c>
+      <c r="B232" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="C232" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D232" s="12" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" s="13">
-        <v>3</v>
-      </c>
-      <c r="B232" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C232" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D232" s="13" t="s">
+    <row r="233" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A233" s="12">
+        <v>4</v>
+      </c>
+      <c r="B233" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="C233" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D233" s="12" t="s">
         <v>148</v>
       </c>
     </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="13">
+        <v>5</v>
+      </c>
+      <c r="B234" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C234" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D234" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="B235" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="C235" s="74"/>
-      <c r="D235" s="75"/>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" s="56"/>
-      <c r="B236" s="76"/>
-      <c r="C236" s="77"/>
-      <c r="D236" s="78"/>
+      <c r="A235" s="91"/>
+      <c r="B235" s="25"/>
+      <c r="D235" s="25"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" s="57" t="s">
+      <c r="A237" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="B237" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="C237" s="73"/>
+      <c r="D237" s="74"/>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="71"/>
+      <c r="B238" s="75"/>
+      <c r="C238" s="76"/>
+      <c r="D238" s="77"/>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B237" s="53" t="s">
+      <c r="B239" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="C237" s="53"/>
-      <c r="D237" s="54"/>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238" s="57"/>
-      <c r="B238" s="53" t="s">
+      <c r="C239" s="88"/>
+      <c r="D239" s="89"/>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="44"/>
+      <c r="B240" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="C238" s="53"/>
-      <c r="D238" s="54"/>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" s="57"/>
-      <c r="B239" s="53" t="s">
+      <c r="C240" s="66"/>
+      <c r="D240" s="67"/>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="44"/>
+      <c r="B241" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="C239" s="53"/>
-      <c r="D239" s="54"/>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" s="58" t="s">
+      <c r="C241" s="84"/>
+      <c r="D241" s="85"/>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B240" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="C240" s="51"/>
-      <c r="D240" s="52"/>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" s="58" t="s">
+      <c r="B242" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="C242" s="68"/>
+      <c r="D242" s="69"/>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B241" s="51" t="s">
+      <c r="B243" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="C241" s="51"/>
-      <c r="D241" s="52"/>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" s="57" t="s">
+      <c r="C243" s="68"/>
+      <c r="D243" s="69"/>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B242" s="53" t="s">
+      <c r="B244" s="82" t="s">
         <v>182</v>
       </c>
-      <c r="C242" s="53"/>
-      <c r="D242" s="54"/>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243" s="59" t="s">
+      <c r="C244" s="68"/>
+      <c r="D244" s="69"/>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="B243" s="59" t="s">
+      <c r="B245" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C243" s="59" t="s">
+      <c r="C245" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="D243" s="59" t="s">
+      <c r="D245" s="46" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" s="12">
-        <v>1</v>
-      </c>
-      <c r="B244" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C244" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D244" s="12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" s="12">
-        <v>2</v>
-      </c>
-      <c r="B245" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C245" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D245" s="12" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B246" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C246" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D246" s="12" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B247" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C247" s="12" t="s">
-        <v>89</v>
+        <v>122</v>
+      </c>
+      <c r="C247" s="15" t="s">
+        <v>123</v>
       </c>
       <c r="D247" s="12" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B248" s="13" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C248" s="13" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D248" s="13" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="B251" s="73" t="s">
-        <v>63</v>
-      </c>
-      <c r="C251" s="74"/>
-      <c r="D251" s="75"/>
+      <c r="A251" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="B251" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="C251" s="73"/>
+      <c r="D251" s="74"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252" s="56"/>
-      <c r="B252" s="76"/>
-      <c r="C252" s="77"/>
-      <c r="D252" s="78"/>
+      <c r="A252" s="71"/>
+      <c r="B252" s="75"/>
+      <c r="C252" s="76"/>
+      <c r="D252" s="77"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253" s="57" t="s">
+      <c r="A253" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B253" s="53" t="s">
+      <c r="B253" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="C253" s="53"/>
-      <c r="D253" s="54"/>
+      <c r="C253" s="66"/>
+      <c r="D253" s="67"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254" s="57"/>
-      <c r="B254" s="53" t="s">
+      <c r="A254" s="44"/>
+      <c r="B254" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="C254" s="53"/>
-      <c r="D254" s="54"/>
+      <c r="C254" s="66"/>
+      <c r="D254" s="67"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255" s="57"/>
-      <c r="B255" s="53" t="s">
+      <c r="A255" s="44"/>
+      <c r="B255" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="C255" s="53"/>
-      <c r="D255" s="54"/>
+      <c r="C255" s="66"/>
+      <c r="D255" s="67"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" s="58" t="s">
+      <c r="A256" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B256" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="C256" s="51"/>
-      <c r="D256" s="52"/>
+      <c r="B256" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="C256" s="68"/>
+      <c r="D256" s="69"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A257" s="58" t="s">
+      <c r="A257" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B257" s="51" t="s">
+      <c r="B257" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="C257" s="51"/>
-      <c r="D257" s="52"/>
+      <c r="C257" s="68"/>
+      <c r="D257" s="69"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A258" s="57" t="s">
+      <c r="A258" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B258" s="53" t="s">
+      <c r="B258" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="C258" s="53"/>
-      <c r="D258" s="54"/>
+      <c r="C258" s="66"/>
+      <c r="D258" s="67"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A259" s="58" t="s">
+      <c r="A259" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="B259" s="58" t="s">
+      <c r="B259" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C259" s="58" t="s">
+      <c r="C259" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="D259" s="58" t="s">
+      <c r="D259" s="46" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4937,7 +5063,7 @@
         <v>1</v>
       </c>
       <c r="B260" s="12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C260" s="12" t="s">
         <v>84</v>
@@ -4951,283 +5077,283 @@
         <v>2</v>
       </c>
       <c r="B261" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C261" s="15" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="C261" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="D261" s="12" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A262" s="13">
+      <c r="A262" s="12">
         <v>3</v>
       </c>
-      <c r="B262" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C262" s="13" t="s">
+      <c r="B262" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C262" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D262" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="12">
+        <v>4</v>
+      </c>
+      <c r="B263" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C263" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D262" s="13" t="s">
+      <c r="D263" s="12" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A265" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="B265" s="73" t="s">
-        <v>64</v>
-      </c>
-      <c r="C265" s="74"/>
-      <c r="D265" s="75"/>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A266" s="56"/>
-      <c r="B266" s="76"/>
-      <c r="C266" s="77"/>
-      <c r="D266" s="78"/>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="13">
+        <v>5</v>
+      </c>
+      <c r="B264" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C264" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D264" s="13" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A267" s="57" t="s">
+      <c r="A267" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="B267" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="C267" s="73"/>
+      <c r="D267" s="74"/>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="71"/>
+      <c r="B268" s="75"/>
+      <c r="C268" s="76"/>
+      <c r="D268" s="77"/>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B267" s="53" t="s">
+      <c r="B269" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="C267" s="53"/>
-      <c r="D267" s="54"/>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A268" s="57"/>
-      <c r="B268" s="53" t="s">
+      <c r="C269" s="66"/>
+      <c r="D269" s="67"/>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" s="44"/>
+      <c r="B270" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="C268" s="53"/>
-      <c r="D268" s="54"/>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A269" s="57"/>
-      <c r="B269" s="53" t="s">
+      <c r="C270" s="66"/>
+      <c r="D270" s="67"/>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" s="44"/>
+      <c r="B271" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="C269" s="53"/>
-      <c r="D269" s="54"/>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A270" s="58" t="s">
+      <c r="C271" s="66"/>
+      <c r="D271" s="67"/>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B270" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="C270" s="51"/>
-      <c r="D270" s="52"/>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A271" s="58" t="s">
+      <c r="B272" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="C272" s="68"/>
+      <c r="D272" s="69"/>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B271" s="51" t="s">
+      <c r="B273" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="C271" s="51"/>
-      <c r="D271" s="52"/>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A272" s="57" t="s">
+      <c r="C273" s="68"/>
+      <c r="D273" s="69"/>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B272" s="53" t="s">
+      <c r="B274" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="C272" s="53"/>
-      <c r="D272" s="54"/>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A273" s="58" t="s">
+      <c r="C274" s="66"/>
+      <c r="D274" s="67"/>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B273" s="58" t="s">
+      <c r="B275" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="C273" s="58" t="s">
+      <c r="C275" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="D273" s="58" t="s">
+      <c r="D275" s="45" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A274" s="12">
-        <v>1</v>
-      </c>
-      <c r="B274" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C274" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D274" s="12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A275" s="12">
-        <v>2</v>
-      </c>
-      <c r="B275" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C275" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D275" s="12" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B276" s="12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C276" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D276" s="12" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B277" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C277" s="12" t="s">
-        <v>89</v>
+        <v>122</v>
+      </c>
+      <c r="C277" s="15" t="s">
+        <v>123</v>
       </c>
       <c r="D277" s="12" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B278" s="13" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C278" s="13" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D278" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="B281" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="C281" s="73"/>
+      <c r="D281" s="74"/>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" s="71"/>
+      <c r="B282" s="75"/>
+      <c r="C282" s="76"/>
+      <c r="D282" s="77"/>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B283" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="C283" s="66"/>
+      <c r="D283" s="67"/>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" s="44"/>
+      <c r="B284" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="C284" s="66"/>
+      <c r="D284" s="67"/>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" s="44"/>
+      <c r="B285" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C285" s="66"/>
+      <c r="D285" s="67"/>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B286" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="C286" s="68"/>
+      <c r="D286" s="69"/>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B287" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="C287" s="68"/>
+      <c r="D287" s="69"/>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B288" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="C288" s="66"/>
+      <c r="D288" s="67"/>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="B289" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C289" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D289" s="45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" s="12">
+        <v>1</v>
+      </c>
+      <c r="B290" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C290" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D290" s="12" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A281" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B281" s="73" t="s">
-        <v>66</v>
-      </c>
-      <c r="C281" s="74"/>
-      <c r="D281" s="75"/>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A282" s="56"/>
-      <c r="B282" s="76"/>
-      <c r="C282" s="77"/>
-      <c r="D282" s="78"/>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A283" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="B283" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="C283" s="53"/>
-      <c r="D283" s="54"/>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A284" s="57"/>
-      <c r="B284" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="C284" s="53"/>
-      <c r="D284" s="54"/>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A285" s="57"/>
-      <c r="B285" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="C285" s="53"/>
-      <c r="D285" s="54"/>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A286" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="B286" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="C286" s="51"/>
-      <c r="D286" s="52"/>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A287" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="B287" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="C287" s="51"/>
-      <c r="D287" s="52"/>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A288" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="B288" s="53" t="s">
-        <v>182</v>
-      </c>
-      <c r="C288" s="53"/>
-      <c r="D288" s="54"/>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A289" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="B289" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="C289" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="D289" s="58" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A290" s="16">
-        <v>1</v>
-      </c>
-      <c r="B290" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="C290" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D290" s="16" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -5235,13 +5361,13 @@
         <v>2</v>
       </c>
       <c r="B291" s="12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C291" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D291" s="16" t="s">
-        <v>160</v>
+        <v>85</v>
+      </c>
+      <c r="D291" s="12" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -5249,523 +5375,609 @@
         <v>3</v>
       </c>
       <c r="B292" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C292" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="D292" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C292" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D292" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" s="12">
+        <v>4</v>
+      </c>
+      <c r="B293" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C293" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D293" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" s="13">
+        <v>5</v>
+      </c>
+      <c r="B294" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C294" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D294" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="B297" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="C297" s="73"/>
+      <c r="D297" s="74"/>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" s="71"/>
+      <c r="B298" s="75"/>
+      <c r="C298" s="76"/>
+      <c r="D298" s="77"/>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B299" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="C299" s="66"/>
+      <c r="D299" s="67"/>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" s="44"/>
+      <c r="B300" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="C300" s="66"/>
+      <c r="D300" s="67"/>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" s="44"/>
+      <c r="B301" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C301" s="66"/>
+      <c r="D301" s="67"/>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B302" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="C302" s="68"/>
+      <c r="D302" s="69"/>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B303" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="C303" s="68"/>
+      <c r="D303" s="69"/>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B304" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="C304" s="66"/>
+      <c r="D304" s="67"/>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="B305" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C305" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D305" s="45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" s="16">
+        <v>1</v>
+      </c>
+      <c r="B306" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C306" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D306" s="16" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A293" s="13">
-        <v>4</v>
-      </c>
-      <c r="B293" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C293" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D293" s="24" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A296" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="B296" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="C296" s="74"/>
-      <c r="D296" s="75"/>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A297" s="56"/>
-      <c r="B297" s="76"/>
-      <c r="C297" s="77"/>
-      <c r="D297" s="78"/>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A298" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="B298" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="C298" s="53"/>
-      <c r="D298" s="54"/>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A299" s="57"/>
-      <c r="B299" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="C299" s="53"/>
-      <c r="D299" s="54"/>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A300" s="57"/>
-      <c r="B300" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="C300" s="53"/>
-      <c r="D300" s="54"/>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A301" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="B301" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="C301" s="51"/>
-      <c r="D301" s="52"/>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A302" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="B302" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="C302" s="51"/>
-      <c r="D302" s="52"/>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A303" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="B303" s="53" t="s">
-        <v>182</v>
-      </c>
-      <c r="C303" s="53"/>
-      <c r="D303" s="54"/>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A304" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="B304" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="C304" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="D304" s="58" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A305" s="16">
-        <v>1</v>
-      </c>
-      <c r="B305" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="C305" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D305" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A306" s="12">
-        <v>2</v>
-      </c>
-      <c r="B306" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C306" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D306" s="16" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B307" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C307" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D307" s="16" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="12">
+        <v>3</v>
+      </c>
+      <c r="B308" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C308" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D308" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" s="13">
         <v>4</v>
       </c>
-      <c r="B308" s="12" t="s">
+      <c r="B309" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C309" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D309" s="24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="B312" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="C312" s="73"/>
+      <c r="D312" s="74"/>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" s="71"/>
+      <c r="B313" s="75"/>
+      <c r="C313" s="76"/>
+      <c r="D313" s="77"/>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B314" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="C314" s="66"/>
+      <c r="D314" s="67"/>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" s="44"/>
+      <c r="B315" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="C315" s="66"/>
+      <c r="D315" s="67"/>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" s="44"/>
+      <c r="B316" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C316" s="66"/>
+      <c r="D316" s="67"/>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B317" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="C317" s="68"/>
+      <c r="D317" s="69"/>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B318" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="C318" s="68"/>
+      <c r="D318" s="69"/>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B319" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="C319" s="66"/>
+      <c r="D319" s="67"/>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="B320" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C320" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D320" s="45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" s="16">
+        <v>1</v>
+      </c>
+      <c r="B321" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C321" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D321" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" s="12">
+        <v>2</v>
+      </c>
+      <c r="B322" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C322" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D322" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" s="12">
+        <v>3</v>
+      </c>
+      <c r="B323" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C323" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D323" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" s="12">
+        <v>4</v>
+      </c>
+      <c r="B324" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C308" s="12" t="s">
+      <c r="C324" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D308" s="16" t="s">
+      <c r="D324" s="16" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A309" s="12">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" s="12">
         <v>5</v>
       </c>
-      <c r="B309" s="12" t="s">
+      <c r="B325" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C309" s="12" t="s">
+      <c r="C325" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D309" s="16" t="s">
+      <c r="D325" s="16" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A310" s="13">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" s="13">
         <v>6</v>
       </c>
-      <c r="B310" s="13" t="s">
+      <c r="B326" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C310" s="13" t="s">
+      <c r="C326" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D310" s="24" t="s">
+      <c r="D326" s="24" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A313" s="55" t="s">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="B313" s="73" t="s">
+      <c r="B329" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="C313" s="74"/>
-      <c r="D313" s="75"/>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A314" s="56"/>
-      <c r="B314" s="76"/>
-      <c r="C314" s="77"/>
-      <c r="D314" s="78"/>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A315" s="57" t="s">
+      <c r="C329" s="73"/>
+      <c r="D329" s="74"/>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" s="71"/>
+      <c r="B330" s="75"/>
+      <c r="C330" s="76"/>
+      <c r="D330" s="77"/>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B315" s="53" t="s">
+      <c r="B331" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="C315" s="53"/>
-      <c r="D315" s="54"/>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A316" s="57"/>
-      <c r="B316" s="53" t="s">
+      <c r="C331" s="66"/>
+      <c r="D331" s="67"/>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" s="44"/>
+      <c r="B332" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="C316" s="53"/>
-      <c r="D316" s="54"/>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A317" s="57"/>
-      <c r="B317" s="53" t="s">
+      <c r="C332" s="66"/>
+      <c r="D332" s="67"/>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" s="44"/>
+      <c r="B333" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="C317" s="53"/>
-      <c r="D317" s="54"/>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A318" s="58" t="s">
+      <c r="C333" s="66"/>
+      <c r="D333" s="67"/>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B318" s="51" t="s">
+      <c r="B334" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="C318" s="51"/>
-      <c r="D318" s="52"/>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A319" s="58" t="s">
+      <c r="C334" s="68"/>
+      <c r="D334" s="69"/>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B319" s="51" t="s">
+      <c r="B335" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="C319" s="51"/>
-      <c r="D319" s="52"/>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A320" s="57" t="s">
+      <c r="C335" s="68"/>
+      <c r="D335" s="69"/>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B320" s="53" t="s">
+      <c r="B336" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="C320" s="53"/>
-      <c r="D320" s="54"/>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A321" s="59" t="s">
+      <c r="C336" s="66"/>
+      <c r="D336" s="67"/>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="B321" s="59" t="s">
+      <c r="B337" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C321" s="59" t="s">
+      <c r="C337" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="D321" s="60" t="s">
+      <c r="D337" s="47" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A322" s="17">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" s="17">
         <v>1</v>
       </c>
-      <c r="B322" s="17" t="s">
+      <c r="B338" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C322" s="17" t="s">
+      <c r="C338" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D322" s="18"/>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A323" s="13">
+      <c r="D338" s="18"/>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" s="13">
         <v>2</v>
       </c>
-      <c r="B323" s="13" t="s">
+      <c r="B339" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C323" s="19" t="s">
+      <c r="C339" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D323" s="11"/>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A326" s="55" t="s">
+      <c r="D339" s="11"/>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" s="70" t="s">
         <v>214</v>
       </c>
-      <c r="B326" s="73" t="s">
+      <c r="B342" s="72" t="s">
         <v>215</v>
       </c>
-      <c r="C326" s="74"/>
-      <c r="D326" s="75"/>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A327" s="56"/>
-      <c r="B327" s="76"/>
-      <c r="C327" s="77"/>
-      <c r="D327" s="78"/>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A328" s="57" t="s">
+      <c r="C342" s="73"/>
+      <c r="D342" s="74"/>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" s="71"/>
+      <c r="B343" s="75"/>
+      <c r="C343" s="76"/>
+      <c r="D343" s="77"/>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B328" s="53" t="s">
+      <c r="B344" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="C328" s="53"/>
-      <c r="D328" s="54"/>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A329" s="57"/>
-      <c r="B329" s="53" t="s">
+      <c r="C344" s="66"/>
+      <c r="D344" s="67"/>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" s="44"/>
+      <c r="B345" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="C329" s="53"/>
-      <c r="D329" s="54"/>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A330" s="57"/>
-      <c r="B330" s="53" t="s">
+      <c r="C345" s="66"/>
+      <c r="D345" s="67"/>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" s="44"/>
+      <c r="B346" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="C330" s="53"/>
-      <c r="D330" s="54"/>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A331" s="58" t="s">
+      <c r="C346" s="66"/>
+      <c r="D346" s="67"/>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B331" s="51" t="s">
+      <c r="B347" s="68" t="s">
         <v>216</v>
       </c>
-      <c r="C331" s="51"/>
-      <c r="D331" s="52"/>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A332" s="58" t="s">
+      <c r="C347" s="68"/>
+      <c r="D347" s="69"/>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B332" s="51" t="s">
+      <c r="B348" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="C332" s="51"/>
-      <c r="D332" s="52"/>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A333" s="57" t="s">
+      <c r="C348" s="68"/>
+      <c r="D348" s="69"/>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B333" s="53" t="s">
+      <c r="B349" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="C333" s="53"/>
-      <c r="D333" s="54"/>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A334" s="58" t="s">
+      <c r="C349" s="66"/>
+      <c r="D349" s="67"/>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B334" s="58" t="s">
+      <c r="B350" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="C334" s="58" t="s">
+      <c r="C350" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="D334" s="60" t="s">
+      <c r="D350" s="47" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A335" s="13">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" s="13">
         <v>1</v>
       </c>
-      <c r="B335" s="43" t="s">
+      <c r="B351" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="C335" s="11" t="s">
+      <c r="C351" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="D335" s="28"/>
+      <c r="D351" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="168">
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:D90"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B319:D319"/>
-    <mergeCell ref="B320:D320"/>
-    <mergeCell ref="A313:A314"/>
-    <mergeCell ref="B313:D314"/>
-    <mergeCell ref="B315:D315"/>
-    <mergeCell ref="B316:D316"/>
-    <mergeCell ref="B317:D317"/>
-    <mergeCell ref="B318:D318"/>
-    <mergeCell ref="B298:D298"/>
-    <mergeCell ref="B299:D299"/>
-    <mergeCell ref="B300:D300"/>
-    <mergeCell ref="B301:D301"/>
-    <mergeCell ref="B302:D302"/>
-    <mergeCell ref="B303:D303"/>
-    <mergeCell ref="B285:D285"/>
-    <mergeCell ref="B286:D286"/>
-    <mergeCell ref="B287:D287"/>
-    <mergeCell ref="B288:D288"/>
-    <mergeCell ref="A296:A297"/>
-    <mergeCell ref="B296:D297"/>
-    <mergeCell ref="B271:D271"/>
-    <mergeCell ref="B272:D272"/>
-    <mergeCell ref="A281:A282"/>
-    <mergeCell ref="B281:D282"/>
-    <mergeCell ref="B283:D283"/>
-    <mergeCell ref="B284:D284"/>
-    <mergeCell ref="A265:A266"/>
-    <mergeCell ref="B265:D266"/>
-    <mergeCell ref="B267:D267"/>
-    <mergeCell ref="B268:D268"/>
-    <mergeCell ref="B269:D269"/>
-    <mergeCell ref="B270:D270"/>
-    <mergeCell ref="B253:D253"/>
-    <mergeCell ref="B254:D254"/>
-    <mergeCell ref="B255:D255"/>
-    <mergeCell ref="B256:D256"/>
-    <mergeCell ref="B257:D257"/>
-    <mergeCell ref="B258:D258"/>
-    <mergeCell ref="B239:D239"/>
-    <mergeCell ref="B240:D240"/>
-    <mergeCell ref="B241:D241"/>
-    <mergeCell ref="B242:D242"/>
-    <mergeCell ref="A251:A252"/>
-    <mergeCell ref="B251:D252"/>
-    <mergeCell ref="B227:D227"/>
-    <mergeCell ref="B228:D228"/>
-    <mergeCell ref="A235:A236"/>
-    <mergeCell ref="B235:D236"/>
-    <mergeCell ref="B237:D237"/>
-    <mergeCell ref="B238:D238"/>
+  <mergeCells count="176">
     <mergeCell ref="A221:A222"/>
     <mergeCell ref="B221:D222"/>
     <mergeCell ref="B223:D223"/>
     <mergeCell ref="B224:D224"/>
     <mergeCell ref="B225:D225"/>
     <mergeCell ref="B226:D226"/>
-    <mergeCell ref="B211:D211"/>
-    <mergeCell ref="B212:D212"/>
-    <mergeCell ref="B213:D213"/>
-    <mergeCell ref="B214:D214"/>
-    <mergeCell ref="B215:D215"/>
-    <mergeCell ref="B216:D216"/>
-    <mergeCell ref="B198:D198"/>
-    <mergeCell ref="B199:D199"/>
-    <mergeCell ref="B200:D200"/>
-    <mergeCell ref="B201:D201"/>
-    <mergeCell ref="A209:A210"/>
-    <mergeCell ref="B209:D210"/>
-    <mergeCell ref="B182:D182"/>
-    <mergeCell ref="B183:D183"/>
-    <mergeCell ref="A194:A195"/>
-    <mergeCell ref="B194:D195"/>
-    <mergeCell ref="B196:D196"/>
-    <mergeCell ref="B197:D197"/>
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="B176:D177"/>
-    <mergeCell ref="B178:D178"/>
-    <mergeCell ref="B179:D179"/>
-    <mergeCell ref="B180:D180"/>
-    <mergeCell ref="B181:D181"/>
-    <mergeCell ref="B162:D162"/>
-    <mergeCell ref="B163:D163"/>
-    <mergeCell ref="B164:D164"/>
-    <mergeCell ref="B165:D165"/>
-    <mergeCell ref="B166:D166"/>
-    <mergeCell ref="B167:D167"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="B148:D148"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="B150:D150"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="B160:D161"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:D144"/>
-    <mergeCell ref="B145:D145"/>
-    <mergeCell ref="B146:D146"/>
-    <mergeCell ref="B130:D130"/>
-    <mergeCell ref="B131:D131"/>
-    <mergeCell ref="B132:D132"/>
-    <mergeCell ref="B128:D128"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="B110:D110"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B227:D227"/>
+    <mergeCell ref="B228:D228"/>
+    <mergeCell ref="B348:D348"/>
+    <mergeCell ref="B349:D349"/>
+    <mergeCell ref="A342:A343"/>
+    <mergeCell ref="B342:D343"/>
+    <mergeCell ref="B344:D344"/>
+    <mergeCell ref="B345:D345"/>
+    <mergeCell ref="B346:D346"/>
+    <mergeCell ref="B347:D347"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="B54:D55"/>
     <mergeCell ref="B94:D94"/>
@@ -5784,42 +5996,120 @@
     <mergeCell ref="B72:D73"/>
     <mergeCell ref="B74:D74"/>
     <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B128:D128"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="B160:D161"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:D144"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="B146:D146"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="B131:D131"/>
+    <mergeCell ref="B132:D132"/>
+    <mergeCell ref="B162:D162"/>
+    <mergeCell ref="B163:D163"/>
+    <mergeCell ref="B164:D164"/>
+    <mergeCell ref="B165:D165"/>
+    <mergeCell ref="B166:D166"/>
+    <mergeCell ref="B167:D167"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="B148:D148"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="A209:A210"/>
+    <mergeCell ref="B209:D210"/>
+    <mergeCell ref="B182:D182"/>
+    <mergeCell ref="B183:D183"/>
+    <mergeCell ref="A194:A195"/>
+    <mergeCell ref="B194:D195"/>
+    <mergeCell ref="B196:D196"/>
+    <mergeCell ref="B197:D197"/>
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="B176:D177"/>
+    <mergeCell ref="B178:D178"/>
+    <mergeCell ref="B179:D179"/>
+    <mergeCell ref="B180:D180"/>
+    <mergeCell ref="B181:D181"/>
+    <mergeCell ref="B211:D211"/>
+    <mergeCell ref="B212:D212"/>
+    <mergeCell ref="B213:D213"/>
+    <mergeCell ref="B214:D214"/>
+    <mergeCell ref="B215:D215"/>
+    <mergeCell ref="B216:D216"/>
+    <mergeCell ref="B198:D198"/>
+    <mergeCell ref="B199:D199"/>
+    <mergeCell ref="B200:D200"/>
+    <mergeCell ref="B201:D201"/>
+    <mergeCell ref="A267:A268"/>
+    <mergeCell ref="B267:D268"/>
+    <mergeCell ref="B243:D243"/>
+    <mergeCell ref="B244:D244"/>
+    <mergeCell ref="A251:A252"/>
+    <mergeCell ref="B251:D252"/>
+    <mergeCell ref="B253:D253"/>
+    <mergeCell ref="B254:D254"/>
+    <mergeCell ref="A237:A238"/>
+    <mergeCell ref="B237:D238"/>
+    <mergeCell ref="B239:D239"/>
+    <mergeCell ref="B240:D240"/>
+    <mergeCell ref="B241:D241"/>
+    <mergeCell ref="B242:D242"/>
+    <mergeCell ref="B269:D269"/>
+    <mergeCell ref="B270:D270"/>
+    <mergeCell ref="B271:D271"/>
+    <mergeCell ref="B272:D272"/>
+    <mergeCell ref="B273:D273"/>
+    <mergeCell ref="B274:D274"/>
+    <mergeCell ref="B255:D255"/>
+    <mergeCell ref="B256:D256"/>
+    <mergeCell ref="B257:D257"/>
+    <mergeCell ref="B258:D258"/>
+    <mergeCell ref="B312:D313"/>
+    <mergeCell ref="B287:D287"/>
+    <mergeCell ref="B288:D288"/>
+    <mergeCell ref="A297:A298"/>
+    <mergeCell ref="B297:D298"/>
+    <mergeCell ref="B299:D299"/>
+    <mergeCell ref="B300:D300"/>
+    <mergeCell ref="A281:A282"/>
+    <mergeCell ref="B281:D282"/>
+    <mergeCell ref="B283:D283"/>
+    <mergeCell ref="B284:D284"/>
+    <mergeCell ref="B285:D285"/>
+    <mergeCell ref="B286:D286"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:D90"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B335:D335"/>
+    <mergeCell ref="B336:D336"/>
+    <mergeCell ref="A329:A330"/>
+    <mergeCell ref="B329:D330"/>
+    <mergeCell ref="B331:D331"/>
     <mergeCell ref="B332:D332"/>
     <mergeCell ref="B333:D333"/>
-    <mergeCell ref="A326:A327"/>
-    <mergeCell ref="B326:D327"/>
-    <mergeCell ref="B328:D328"/>
-    <mergeCell ref="B329:D329"/>
-    <mergeCell ref="B330:D330"/>
-    <mergeCell ref="B331:D331"/>
+    <mergeCell ref="B334:D334"/>
+    <mergeCell ref="B314:D314"/>
+    <mergeCell ref="B315:D315"/>
+    <mergeCell ref="B316:D316"/>
+    <mergeCell ref="B317:D317"/>
+    <mergeCell ref="B318:D318"/>
+    <mergeCell ref="B319:D319"/>
+    <mergeCell ref="B301:D301"/>
+    <mergeCell ref="B302:D302"/>
+    <mergeCell ref="B303:D303"/>
+    <mergeCell ref="B304:D304"/>
+    <mergeCell ref="A312:A313"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5831,7 +6121,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:G23"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5850,79 +6140,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="78" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="64"/>
-      <c r="L1" s="71" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="49"/>
+      <c r="L1" s="80" t="s">
         <v>180</v>
       </c>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="67"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="52"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="B3" s="68">
+      <c r="B3" s="53">
         <v>1</v>
       </c>
-      <c r="C3" s="68">
+      <c r="C3" s="53">
         <v>2</v>
       </c>
-      <c r="D3" s="68">
+      <c r="D3" s="53">
         <v>3</v>
       </c>
-      <c r="E3" s="68">
+      <c r="E3" s="53">
         <v>4</v>
       </c>
-      <c r="F3" s="68">
+      <c r="F3" s="53">
         <v>5</v>
       </c>
-      <c r="G3" s="68">
+      <c r="G3" s="53">
         <v>6</v>
       </c>
-      <c r="H3" s="68">
+      <c r="H3" s="53">
         <v>7</v>
       </c>
-      <c r="I3" s="68">
+      <c r="I3" s="53">
         <v>8</v>
       </c>
-      <c r="J3" s="69">
+      <c r="J3" s="54">
         <v>9</v>
       </c>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
@@ -5955,7 +6245,7 @@
       <c r="J4" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="L4" s="70" t="s">
+      <c r="L4" s="55" t="s">
         <v>73</v>
       </c>
       <c r="M4" s="27" t="s">
@@ -6333,10 +6623,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6364,7 +6654,7 @@
       <c r="B2" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="56" t="s">
         <v>159</v>
       </c>
     </row>
@@ -6372,15 +6662,15 @@
       <c r="B3" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="56" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="57" t="s">
         <v>150</v>
       </c>
     </row>
@@ -6388,7 +6678,7 @@
       <c r="B5" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="56" t="s">
         <v>149</v>
       </c>
     </row>
@@ -6399,7 +6689,7 @@
       <c r="B6" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="56" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6407,7 +6697,7 @@
       <c r="B7" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="58" t="s">
         <v>152</v>
       </c>
     </row>
@@ -6415,7 +6705,7 @@
       <c r="B8" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="56" t="s">
         <v>199</v>
       </c>
     </row>
@@ -6426,7 +6716,7 @@
       <c r="B9" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="56" t="s">
         <v>153</v>
       </c>
     </row>
@@ -6434,7 +6724,7 @@
       <c r="B10" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="56" t="s">
         <v>202</v>
       </c>
     </row>
@@ -6445,7 +6735,7 @@
       <c r="B11" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="C11" s="79" t="s">
+      <c r="C11" s="56" t="s">
         <v>154</v>
       </c>
     </row>
@@ -6456,7 +6746,7 @@
       <c r="B12" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="C12" s="79" t="s">
+      <c r="C12" s="56" t="s">
         <v>155</v>
       </c>
     </row>
@@ -6467,7 +6757,7 @@
       <c r="B13" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="56" t="s">
         <v>156</v>
       </c>
     </row>
@@ -6478,40 +6768,51 @@
       <c r="B14" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="C14" s="79" t="s">
+      <c r="C14" s="56" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="C15" s="79" t="s">
-        <v>158</v>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="93" t="s">
+        <v>226</v>
+      </c>
+      <c r="B15" s="93" t="s">
+        <v>233</v>
+      </c>
+      <c r="C15" s="94" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="C16" s="79" t="s">
-        <v>161</v>
+        <v>207</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B18" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="C17" s="79" t="s">
+      <c r="C18" s="56" t="s">
         <v>162</v>
       </c>
     </row>
@@ -6524,7 +6825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
